--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/66_Sakarya_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/66_Sakarya_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB37BE4-A9C7-405D-9EA8-E012FA627343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F5608F-5B7F-46C4-A529-EE401AF82DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{CD4928B6-EE39-40DD-AEFD-CD05D6F42F27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" xr2:uid="{F0DCF738-C28C-427D-92F6-4F0109213A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -927,13 +927,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{AAF6C830-4B34-4791-B5F4-CCCD3EBFDFEF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DC72F06F-D8DD-4F67-9AFA-7282407BC6EF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8CE8B89D-4005-40FB-BB9A-3C7B61040433}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E68ABA14-13BE-407B-8F9C-A6C6871340A3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{FFAA263F-6E44-4765-A849-95F71E5C88EE}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{2D98CB88-9DE2-417A-81A1-49B06ADA9090}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{FA303FBD-4CD5-4F49-9987-2BF90D27E998}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6F8397F6-7DD6-4CAE-8C4E-B42C5CA69A8A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{523D3D8B-ECE7-4BDD-A68C-2730B3D1E556}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A3297865-C3EB-43E9-992E-D4C5063C1947}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F13D7C20-E21F-4186-9B31-222071F99059}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8B68BBB1-0A0D-468F-A6D6-688BC30B08D2}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{964BAC6F-2446-43B8-B518-14DFCF3D58AD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1D610A42-735D-4CA9-AF22-6B844EFB798D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289832E2-3D9E-47B1-82B1-531CBCD866A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46781F97-04DE-4E89-B549-98580547FB19}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7723E5-CC9A-4F80-98B1-98B467733718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00ECF97-6061-49DB-B611-E8F3ED19F35F}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3921,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE959389-A2DD-47A8-A4E1-97424B52DB12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859FBCBB-68AD-4EC8-AA75-1C0823B21314}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E059B59-B113-4A86-A159-C50625AA9F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D00F2-C577-4B85-81B1-9E7BC7538387}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6523,7 +6523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB006B-5341-4788-81E8-74762E185CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C511A5A-E3FE-4B58-BCEF-635D711EF7B2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7837,7 +7837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53599763-6CA7-4C25-9571-2E550041A786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EE9710-DB39-4918-A7E2-5C760FE7FFED}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9149,7 +9149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4664040-029B-4FDA-A791-84FB1EBAC6DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21D7198-AB4B-4C0C-A1A2-C1E503C3DD91}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10457,7 +10457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907CB4CF-ECB1-4FE2-8CCA-A57DA6E52F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CE42F5-1BC2-4B65-89FA-CC8D44954475}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11765,7 +11765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8550C68B-EE1E-41D8-91DD-AC14F71EB915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9176EF-2509-47B3-8861-DFBCA56B25AF}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13067,7 +13067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68007285-5617-4E1D-8240-536198E8F27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F876225E-77B5-4E39-AB19-4F5B372EDF22}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14371,7 +14371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5599DC4-3450-4242-97BF-89ED92D82104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72328EA-61A0-4937-9370-F41BE549F4E8}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15669,7 +15669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C3F77-A001-4836-851D-9FCF5DCAE09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AEB367-807F-4A7D-9C12-EAC92884E531}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
